--- a/BOM-SMPS-Demo-board.xlsx
+++ b/BOM-SMPS-Demo-board.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\DTU\Elektriske kredsløb 2\Hjælpelærer F16-F18\Lab Ex - SMPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sjefen\OneDrive - Danmarks Tekniske Universitet\Jobb\EK2 TA\EK2-SMPS-PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="2729B575DCA4F62C7E8868770AA6AFE0076B9451" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{A5B2721B-6E5D-42F2-A628-A1B23D672C82}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6953" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="130">
   <si>
     <t>Part No.</t>
   </si>
@@ -336,9 +335,6 @@
     <t>896-7620</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>C5,C10,Cout2,Cout5</t>
   </si>
   <si>
@@ -406,6 +402,18 @@
   </si>
   <si>
     <t>CRCW08054R99FKEA</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>digikey</t>
+  </si>
+  <si>
+    <t>mouser</t>
+  </si>
+  <si>
+    <t>rs</t>
   </si>
 </sst>
 </file>
@@ -848,33 +856,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.73046875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.06640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.73046875" style="17"/>
-    <col min="15" max="15" width="11.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.9296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.53125" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.73046875" style="17"/>
+    <col min="11" max="11" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="17"/>
+    <col min="15" max="15" width="11.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="45" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>64</v>
       </c>
@@ -894,24 +902,24 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="3"/>
       <c r="I2" s="4"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="F3" s="3"/>
       <c r="I3" s="4"/>
       <c r="K3" s="5"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -952,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>89</v>
       </c>
@@ -979,7 +987,7 @@
       </c>
       <c r="I6" s="15">
         <f>H6*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6" s="14">
         <v>1</v>
@@ -993,37 +1001,37 @@
       </c>
       <c r="M6" s="16">
         <f t="shared" ref="M6:M30" si="1">ROUNDUP((I6/J6),0)*J6*K6</f>
-        <v>503.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+        <v>553.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="14">
         <v>4</v>
       </c>
       <c r="I7" s="15">
         <f>H7*C3</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J7" s="14">
         <v>1</v>
@@ -1037,12 +1045,12 @@
       </c>
       <c r="M7" s="16">
         <f t="shared" ref="M7:M8" si="2">ROUNDUP((I7/J7),0)*J7*K7</f>
-        <v>54.800000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+        <v>60.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>3</v>
@@ -1067,7 +1075,7 @@
       </c>
       <c r="I8" s="15">
         <f>H8*C3</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J8" s="14">
         <v>1</v>
@@ -1081,12 +1089,12 @@
       </c>
       <c r="M8" s="16">
         <f t="shared" si="2"/>
-        <v>127.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>139.92000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>3</v>
@@ -1111,7 +1119,7 @@
       </c>
       <c r="I9" s="15">
         <f>H9*C3</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J9" s="14">
         <v>1</v>
@@ -1125,10 +1133,10 @@
       </c>
       <c r="M9" s="16">
         <f t="shared" ref="M9" si="3">ROUNDUP((I9/J9),0)*J9*K9</f>
-        <v>70.400000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>90</v>
       </c>
@@ -1155,7 +1163,7 @@
       </c>
       <c r="I10" s="15">
         <f>H10*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10" s="14">
         <v>1</v>
@@ -1169,37 +1177,37 @@
       </c>
       <c r="M10" s="16">
         <f t="shared" ref="M10:M12" si="5">ROUNDUP((I10/J10),0)*J10*K10</f>
-        <v>205.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+        <v>225.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H11" s="14">
         <v>3</v>
       </c>
       <c r="I11" s="15">
         <f>H11*C3</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J11" s="14">
         <v>100</v>
@@ -1216,34 +1224,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
       </c>
       <c r="I12" s="15">
         <f>H12*C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="14">
         <v>100</v>
@@ -1260,34 +1268,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H13" s="14">
         <v>2</v>
       </c>
       <c r="I13" s="18">
         <f>H13*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13" s="14">
         <v>100</v>
@@ -1304,34 +1312,34 @@
         <v>14.899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H14" s="14">
         <v>3</v>
       </c>
       <c r="I14" s="18">
         <f>H14*C3</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J14" s="14">
         <v>100</v>
@@ -1348,7 +1356,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1363,7 +1371,7 @@
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -1390,7 +1398,7 @@
       </c>
       <c r="I16" s="15">
         <f>H16*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J16" s="14">
         <v>1</v>
@@ -1404,10 +1412,10 @@
       </c>
       <c r="M16" s="16">
         <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+        <v>167.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>46</v>
       </c>
@@ -1434,7 +1442,7 @@
       </c>
       <c r="I17" s="15">
         <f>H17*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J17" s="14">
         <v>1</v>
@@ -1448,10 +1456,10 @@
       </c>
       <c r="M17" s="16">
         <f t="shared" ref="M17" si="8">ROUNDUP((I17/J17),0)*J17*K17</f>
-        <v>989.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+        <v>1088.1200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>50</v>
       </c>
@@ -1478,7 +1486,7 @@
       </c>
       <c r="I18" s="15">
         <f>H18*C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J18" s="14">
         <v>5</v>
@@ -1492,10 +1500,13 @@
       </c>
       <c r="M18" s="16">
         <f t="shared" ref="M18" si="9">ROUNDUP((I18/J18),0)*J18*K18</f>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+        <v>182.5</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>55</v>
       </c>
@@ -1522,7 +1533,7 @@
       </c>
       <c r="I19" s="15">
         <f>H19*C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="14">
         <v>10</v>
@@ -1536,10 +1547,13 @@
       </c>
       <c r="M19" s="16">
         <f t="shared" ref="M19" si="10">ROUNDUP((I19/J19),0)*J19*K19</f>
-        <v>62.400000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+        <v>93.600000000000009</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>76</v>
       </c>
@@ -1566,7 +1580,7 @@
       </c>
       <c r="I20" s="18">
         <f>H20*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J20" s="14">
         <v>10</v>
@@ -1580,10 +1594,10 @@
       </c>
       <c r="M20" s="16">
         <f t="shared" ref="M20:M21" si="12">ROUNDUP((I20/J20),0)*J20*K20</f>
-        <v>399.20000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>77</v>
       </c>
@@ -1610,7 +1624,7 @@
       </c>
       <c r="I21" s="18">
         <f>H21*C3</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J21" s="14">
         <v>10</v>
@@ -1624,10 +1638,13 @@
       </c>
       <c r="M21" s="16">
         <f t="shared" si="12"/>
-        <v>133.20000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+        <v>155.4</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1642,7 +1659,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
@@ -1669,7 +1686,7 @@
       </c>
       <c r="I23" s="15">
         <f>H23*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J23" s="14">
         <v>1</v>
@@ -1683,10 +1700,10 @@
       </c>
       <c r="M23" s="16">
         <f t="shared" si="1"/>
-        <v>373.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+        <v>410.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
         <v>99</v>
@@ -1709,7 +1726,7 @@
       </c>
       <c r="I24" s="18">
         <f>H24*C3</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J24" s="14">
         <v>50</v>
@@ -1723,10 +1740,10 @@
       </c>
       <c r="M24" s="16">
         <f t="shared" si="1"/>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>6</v>
       </c>
@@ -1753,7 +1770,7 @@
       </c>
       <c r="I25" s="15">
         <f>H25*C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J25" s="15">
         <v>1</v>
@@ -1767,10 +1784,13 @@
       </c>
       <c r="M25" s="16">
         <f t="shared" si="1"/>
-        <v>177.39999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+        <v>195.14</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>6</v>
       </c>
@@ -1797,7 +1817,7 @@
       </c>
       <c r="I26" s="15">
         <f>H26*C3</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J26" s="15">
         <v>1</v>
@@ -1811,10 +1831,13 @@
       </c>
       <c r="M26" s="16">
         <f t="shared" si="1"/>
-        <v>709.59999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+        <v>780.56</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1864,7 @@
       </c>
       <c r="I27" s="18">
         <f>H27*C3</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J27" s="15">
         <v>10</v>
@@ -1855,10 +1878,10 @@
       </c>
       <c r="M27" s="16">
         <f t="shared" ref="M27" si="13">ROUNDUP((I27/J27),0)*J27*K27</f>
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1873,7 +1896,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1919,7 @@
       </c>
       <c r="I29" s="15">
         <f>H29*C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J29" s="14">
         <v>10</v>
@@ -1910,10 +1933,10 @@
       </c>
       <c r="M29" s="16">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
@@ -1936,7 +1959,7 @@
       </c>
       <c r="I30" s="15">
         <f>H30*C3</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J30" s="14">
         <v>10</v>
@@ -1950,10 +1973,10 @@
       </c>
       <c r="M30" s="16">
         <f t="shared" si="1"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="24" t="s">
         <v>15</v>
@@ -1973,10 +1996,10 @@
       </c>
       <c r="M31" s="11">
         <f>SUM(M6:M30)</f>
-        <v>4825.8</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.45">
+        <v>5677.6</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K34" s="17"/>
       <c r="L34" s="21"/>
     </row>
